--- a/data/3/20230604-a1r-yc-session3-b_transcript.xlsx
+++ b/data/3/20230604-a1r-yc-session3-b_transcript.xlsx
@@ -1,420 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/menlo2024/Desktop/DDL/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579F7105-E060-FE40-9E1D-44512E7597D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230604-a1r-yc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="124">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"8:07"</t>
-  </si>
-  <si>
-    <t>Just to put it out there, I'm totally 100% opposed to voting online. Voting by mail should have strict</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rules. It's for the elderly or the infirm, voting, maybe a right.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> But there's some responsibility of involved. If you're interested in your government to get off your butt, you go and you'll vote, you'll take the time to be involved. Not just a casual.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thing.</t>
-  </si>
-  <si>
-    <t>"8:43"</t>
-  </si>
-  <si>
-    <t>I think it's about the registering to vote online, not actually doing the votes.</t>
-  </si>
-  <si>
-    <t>"8:56"</t>
-  </si>
-  <si>
-    <t>yes, I live in Washington and we already do these and it's it is really nice, it's a convenient but</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I do see the security risk and I have personally seen people who have passed and gone ballots, so I don't personally like it. I can see both sides of the coin as to why be good my to be bad though.</t>
-  </si>
-  <si>
-    <t>"9:33"</t>
-  </si>
-  <si>
-    <t>What are the things that I'm surprised that we were not? Seeing, is that election day? Is not a holiday, I think that would help out a lot because a lot of us work. And so we're stuck at work all day and then we've got to go and drive through traffic to try to vote. So I think one of the big things should be that election days should be federal holidays.</t>
-  </si>
-  <si>
-    <t>"10:05"</t>
-  </si>
-  <si>
-    <t>That's actually a pretty good idea. I think the the I guess the, the goal or the agenda is to get more voters voter turnout. I don't see how increasing registration or making it easier to register would actually get more people out to the polls as opposed to like, a Federal holiday wood.</t>
-  </si>
-  <si>
-    <t>"10:23"</t>
-  </si>
-  <si>
-    <t>I just I think that you should definitely have to vote in person. I mean, their security issue of online, you know, you hear a lot about, you know, just fraud on all kinds of things online and it's just, it's not secure. I mean, I would feel better if I knew it might vote was, you know, being physically looked at in care of it.</t>
-  </si>
-  <si>
-    <t>"10:52"</t>
-  </si>
-  <si>
-    <t>if it has made a Federal holiday, would you still have it an optional item for every citizen or do you make it more of a mandated thing that a jury duty is</t>
-  </si>
-  <si>
-    <t>"11:06"</t>
-  </si>
-  <si>
-    <t>I agree with everybody as far as on the motoring. It's, you know, it is a right to each one of us out here. It should not be, you know, voting online or, you know, because you've got run into the voter fraud and you have people that can hack into the systems and so it's not right for all of that. I mean, we are all born with this, right? We had guys that fought for us and to give us this, right? So we need</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> need to appreciate what we do have and go forth on this.</t>
-  </si>
-  <si>
-    <t>"13:52"</t>
-  </si>
-  <si>
-    <t>Well, once again to get right into it voting by mail is out except for the disabilities. The elderly people with special needs, should have that, right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ABS voting by those ballots have to be in by election day period, you're going to vote, you have to have an ID.</t>
-  </si>
-  <si>
-    <t>And for the counting of the votes complete 100% transparency. You have special observers who observe everything all the time. No, no. Flocking people out. They get to stay in the cunning rooms until every ballot is counted. The Stalin said you didn't care who voted or how many</t>
-  </si>
-  <si>
-    <t>"14:37"</t>
-  </si>
-  <si>
-    <t>"14:58"</t>
-  </si>
-  <si>
-    <t>I think this is a lot of questions here, but I think one of the big ones is we talked about it yesterday. Was that the federal government definitely needs to give States more money and help them with updating the voting machines and creating a proper infrastructure. And I think it's important for the federal government to support the state's it, this so that they have</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the ability to have voting open to everyone.</t>
-  </si>
-  <si>
-    <t>"15:32"</t>
-  </si>
-  <si>
-    <t>I agreed with Jeff. As far as on, you have to show up in person to vote no mailing in you, need to show up unless circum, sir under, you know certain circumstances for the elderly or disabled. But if you vote, if you guys have ever seen the 2000 mules, you'll understand this is, I mean, there's was voter fraud and, you know, back in the 2000.</t>
-  </si>
-  <si>
-    <t>Sixteen election. So I mean we are 2020 election. Sorry anyway we need to have as far as everybody vote in person.</t>
-  </si>
-  <si>
-    <t>"16:15"</t>
-  </si>
-  <si>
-    <t>I think an issue that I see here, a big issue is that it doesn't exactly make any kind of stipulation for those types of extenuating circumstances where mail-in voting would be the only way, you know, disability certain people, it does allow family members and and, you know designates but that also isolates the population or the part of the population, that is, without help that are by themselves, that would only have a third party. Now, I don't know if the United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It's Postal Service would be considered one of those third parties. So that would be something where if they can, you know, hand, it directly to their mail carrier, you know? And that would be okay, that that would work, but there's no allowing for somebody who has special needs or disability to be able to go.</t>
-  </si>
-  <si>
-    <t>"17:00"</t>
-  </si>
-  <si>
-    <t>I think it's encouraging that in Oregon and other states. They discovered that voting by mail is good voting, by mail works the 60, some lawsuits brought by others last election, 2016 were all discovered to be</t>
-  </si>
-  <si>
-    <t>Not workable. Not valid, but not valid because there was no voter fraud in 2016.</t>
-  </si>
-  <si>
-    <t>"17:33"</t>
-  </si>
-  <si>
-    <t>Bernie, I'm afraid you're sadly delusional.</t>
-  </si>
-  <si>
-    <t>"17:40"</t>
-  </si>
-  <si>
-    <t>No, I'm just a disabled veteran who knows? And reads important information and that information prove that there was no voter fraud.</t>
-  </si>
-  <si>
-    <t>"19:04"</t>
-  </si>
-  <si>
-    <t>I think, I think there should be uniform, voting red regulations. I don't see why everything has to be set up by the state because it puts more stress on the state's infrastructure and if the federal government is mandating it, and it they also have the opportunity to give funding to help the state's, create the infrastructure that's needed to help with voting and then that way it would mitigate a lot of the issues.</t>
-  </si>
-  <si>
-    <t>"19:33"</t>
-  </si>
-  <si>
-    <t>Yes, I think you should definitely have to have ID. You know, when you go to vote, if you don't have ID you know, maybe and you do want to vote, maybe just gives you some incentive, you know, to just go and get your ID or driver's license.</t>
-  </si>
-  <si>
-    <t>"19:56"</t>
-  </si>
-  <si>
-    <t>Having worked elections for 30 ideas. I think it's important to understand that people come in and may or may not have a valid ID. They can always leave their social, should social security number and then show proof of that, within 10 days of voting. So again, it puts the burden on the voter to do the right thing and yet, the Board of Elections is protected by ensuring that</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Any person who votes is valid?</t>
-  </si>
-  <si>
-    <t>"20:30"</t>
-  </si>
-  <si>
-    <t>I think one downside to having everything, all the rules organized by the federal government, is that the individual states will then have to manage within their own infrastructure to be able to keep that same standard currently there, you know, States. Like, for example, Louisiana doesn't have a lot of money, so they kind of do things, the best that they can wear, if they had to do it differently than there would need to be, you know, extra funding coming to certain places to be able to facilitate that</t>
-  </si>
-  <si>
-    <t>"20:56"</t>
-  </si>
-  <si>
-    <t>There's no excuse not to have a proper ID, when you come to vote States, providing for free. If you don't have money. There's all kinds of organizations there to help you get in and get it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It can be done, it's fairly simple, but it's up to the individual to make the effort to participate.</t>
-  </si>
-  <si>
-    <t>"21:19"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree. The I think it's definitely the federal government is mandating the regulations, then that should come along with funding. And I think that's, I know a lot of states are struggling with infrastructure in the money to to make the voting happen. And so, I think that would go hand-in-hand where government give money to help those States and I think it would be a benefit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To them.</t>
-  </si>
-  <si>
-    <t>"21:50"</t>
-  </si>
-  <si>
-    <t>I believe you, as far as I had a friend of mine whose she's passed away now, but she didn't drive anymore. So she was able to get a light and something like a special like license, but it was a non driver's license and she could go and she could vote. So why is it that people can't seem to get off your lazy Duff's and go get a license and be able to vote because this is right given to all of us. We need to appreciate what we have.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Been given.</t>
-  </si>
-  <si>
-    <t>"22:21"</t>
-  </si>
-  <si>
-    <t>Yes, states have the ability to give you can get a driver's license or you could get a state issued ID and can also go to your Social Security office and get your Social Security card. And if you are, I don't know about other states. But in this state, if you cannot pay for any of those forms of identification of give it to you for free. And so, you have the ability to get some forms of identification.</t>
-  </si>
-  <si>
-    <t>"22:48"</t>
-  </si>
-  <si>
-    <t>We have had people without state issued IDs and they can use a regular utility bill or something of that nature that will allow them to vote. So they have plenty of options.</t>
-  </si>
-  <si>
-    <t>"23:05"</t>
-  </si>
-  <si>
-    <t>It's going to cut some people off that wall but it might also open up many more people that otherwise wouldn't vote. That will now because they have more trust in the system or what not.</t>
-  </si>
-  <si>
-    <t>"24:07"</t>
-  </si>
-  <si>
-    <t>No personally, I never understood the Restriction of not allowing ex-convicts to vote. I can understand not allowing, you know, people who are actively in prison to participate. But once you, you know, paid your price and or release back into what would be Society. There are certain freedoms. As, you know, we're talking about that should be should be available.</t>
-  </si>
-  <si>
-    <t>"24:29"</t>
-  </si>
-  <si>
-    <t>I think for the justice system it's just like it's a deterrent. If you commit a felony you won't be able to vote again. So don't commit a felony. I think it's like that. Same things like not be able to own like a handgun but for my opinion, that's right.</t>
-  </si>
-  <si>
-    <t>"24:47"</t>
-  </si>
-  <si>
-    <t>I think, you know, it's a controversial subject but I my opinion is voting rights should be restored upon release from prison.</t>
-  </si>
-  <si>
-    <t>"25:06"</t>
-  </si>
-  <si>
-    <t>You have a cap. If you have a captive audience, as you have in most prisons, you could restore voting rights through one year, say, seminar during their last year of imprisonment, to allow them to understand what their voting responsibilities are and how to go about getting their ID and how to use it. I mean, you've got a captive audience</t>
-  </si>
-  <si>
-    <t>"25:33"</t>
-  </si>
-  <si>
-    <t>And voting is something that as as a country. We struggle. I mean, we have to almost beg people to come out to the polls and vote. So it's using that as a punishment is almost like telling your kids, you know, clean your room, you know, and making them do stuff that they that they you know, they don't want to do anyway. So it's just counterproductive to the whole getting more people to them to the pole for using that of the punishment.</t>
-  </si>
-  <si>
-    <t>"26:08"</t>
-  </si>
-  <si>
-    <t>"27:43"</t>
-  </si>
-  <si>
-    <t>Personally, I don't see anything wrong with any of this.</t>
-  </si>
-  <si>
-    <t>"27:54"</t>
-  </si>
-  <si>
-    <t>I've worked elections for 30 years and I've yet to have any voting fraud. If the broad did occur, it would be caught by the multiple checks and balances that exists between the voting location and the Board of Elections and then the state Secretary of State and his or his or her offices. So there are multiple checks on any voting or voter and usually find a small percentage of any that actually</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> He does voter fraud.</t>
-  </si>
-  <si>
-    <t>"28:30"</t>
-  </si>
-  <si>
-    <t>I personally believe the waterfall to be rampant. Small example, Michigan had over 100,000 more people vote than a registered to vote. I believe it should be observers everywhere, free and open, not to interfere at all with accounting or messing with the votes, but to observe, the should be able to challenge voters. Not to slow the process, but that should be a means to challenge.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And keep those votes under scrutiny.</t>
-  </si>
-  <si>
-    <t>"29:00"</t>
-  </si>
-  <si>
-    <t>Yeah, these processes would just essentially help voter confidence, which is a big issue, especially thanks to the media. A lot of people just don't trust our voting system, even though it is effective, I mean, it does work. We've been relying on it for a long time, but there's just a lot of bad mojo that people consider in, these would help to alleviate some of those fears and concerns.</t>
-  </si>
-  <si>
-    <t>"31:09"</t>
-  </si>
-  <si>
-    <t>I love the idea of federal standards but I love local control. So if we had some standards and continue to have the operations of the Secretary of State and his or her assistance, then I think we can continue to build</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> more reliable election system.</t>
-  </si>
-  <si>
-    <t>"31:35"</t>
-  </si>
-  <si>
-    <t>I agree with Bernie on that hundred percent of the state's do need money to operate but local control. Local control, local control. We don't need quote, unquote professionals hired to do the job. They should be elected officials. You're not going to find the professional people, any more honest, or trustworthy than an elected person. And when you're being elected by the person is a better chance of keeping them under control.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Troll.</t>
-  </si>
-  <si>
-    <t>"32:11"</t>
-  </si>
-  <si>
-    <t>I totally agree with Jeff and Bernie. We need to have our electric officials. Actually do their job and do as far as counting and things like this. I mean, why are we going to have the government you know as far as try to spend more money on this when they are? They can't seem to balance a budget already. I mean we need to, as far as have the elected officials work on this.</t>
-  </si>
-  <si>
-    <t>"32:38"</t>
-  </si>
-  <si>
-    <t>I think that, you know, with the state's getting Federal money for this, you know, then there would be no reason to say that it couldn't be done, you know, states are already tight for money. So I mean I think it's better to just have the federal government, fun things like this.</t>
-  </si>
-  <si>
-    <t>"37:24"</t>
-  </si>
-  <si>
-    <t>I've struggled with getting my congressional representative to respond to my questions. Either online on the phone or in her office, she just seems to be a very busy woman and doesn't quite have time.</t>
-  </si>
-  <si>
-    <t>"38:17"</t>
-  </si>
-  <si>
-    <t>"38:56"</t>
-  </si>
-  <si>
-    <t>Hugo, I can't. We can't hear you.</t>
-  </si>
-  <si>
-    <t>"39:23"</t>
-  </si>
-  <si>
-    <t>Hugo, did you fix your audio?</t>
-  </si>
-  <si>
-    <t>"39:28"</t>
-  </si>
-  <si>
-    <t>"39:41"</t>
-  </si>
-  <si>
-    <t>You go. You're not coming through. No sound.</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -490,44 +107,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -596,14 +213,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1678,8 +1287,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C81"/>
@@ -1688,958 +1298,1166 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.33203125" style="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="4"/>
+    <col width="8.33203125" customWidth="1" style="1" min="5" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="9">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="9">
+      <c r="A2" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"8:07"</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Just to put it out there, I'm totally 100% opposed to voting online. Voting by mail should have strict</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="9">
+      <c r="A3" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"8:07"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rules. It's for the elderly or the infirm, voting, maybe a right.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="9">
+      <c r="A4" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"8:07"</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> But there's some responsibility of involved. If you're interested in your government to get off your butt, you go and you'll vote, you'll take the time to be involved. Not just a casual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="9">
+      <c r="A5" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"8:07"</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="9">
+      <c r="A6" s="3" t="n">
         <v>48289</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"8:43"</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>I think it's about the registering to vote online, not actually doing the votes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="9">
+      <c r="A7" s="3" t="n">
         <v>10598</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"8:56"</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>yes, I live in Washington and we already do these and it's it is really nice, it's a convenient but</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="9">
+      <c r="A8" s="3" t="n">
         <v>10598</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"8:56"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I do see the security risk and I have personally seen people who have passed and gone ballots, so I don't personally like it. I can see both sides of the coin as to why be good my to be bad though.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="9">
+      <c r="A9" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"9:33"</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>What are the things that I'm surprised that we were not? Seeing, is that election day? Is not a holiday, I think that would help out a lot because a lot of us work. And so we're stuck at work all day and then we've got to go and drive through traffic to try to vote. So I think one of the big things should be that election days should be federal holidays.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="9">
+      <c r="A10" s="3" t="n">
         <v>48289</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"10:05"</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>That's actually a pretty good idea. I think the the I guess the, the goal or the agenda is to get more voters voter turnout. I don't see how increasing registration or making it easier to register would actually get more people out to the polls as opposed to like, a Federal holiday wood.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="9">
+      <c r="A11" s="3" t="n">
         <v>48434</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"10:23"</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="9">
+      <c r="A12" s="3" t="n">
         <v>48434</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"10:23"</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>I just I think that you should definitely have to vote in person. I mean, their security issue of online, you know, you hear a lot about, you know, just fraud on all kinds of things online and it's just, it's not secure. I mean, I would feel better if I knew it might vote was, you know, being physically looked at in care of it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="9">
+      <c r="A13" s="3" t="n">
         <v>10598</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"10:52"</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>if it has made a Federal holiday, would you still have it an optional item for every citizen or do you make it more of a mandated thing that a jury duty is</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="9">
+      <c r="A14" s="3" t="n">
         <v>10507</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"11:06"</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>I agree with everybody as far as on the motoring. It's, you know, it is a right to each one of us out here. It should not be, you know, voting online or, you know, because you've got run into the voter fraud and you have people that can hack into the systems and so it's not right for all of that. I mean, we are all born with this, right? We had guys that fought for us and to give us this, right? So we need</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="9">
+      <c r="A15" s="3" t="n">
         <v>10507</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"11:06"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> need to appreciate what we do have and go forth on this.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="9">
+      <c r="A16" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"13:52"</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Well, once again to get right into it voting by mail is out except for the disabilities. The elderly people with special needs, should have that, right?</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="9">
+      <c r="A17" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"13:52"</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABS voting by those ballots have to be in by election day period, you're going to vote, you have to have an ID.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="9">
+      <c r="A18" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"13:52"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>And for the counting of the votes complete 100% transparency. You have special observers who observe everything all the time. No, no. Flocking people out. They get to stay in the cunning rooms until every ballot is counted. The Stalin said you didn't care who voted or how many</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="9">
+      <c r="A19" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"14:37"</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="9">
+      <c r="A20" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"14:37"</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="9">
+      <c r="A21" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"14:58"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>I think this is a lot of questions here, but I think one of the big ones is we talked about it yesterday. Was that the federal government definitely needs to give States more money and help them with updating the voting machines and creating a proper infrastructure. And I think it's important for the federal government to support the state's it, this so that they have</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="9">
+      <c r="A22" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"14:58"</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> the ability to have voting open to everyone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="9">
+      <c r="A23" s="3" t="n">
         <v>10507</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"15:32"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>I agreed with Jeff. As far as on, you have to show up in person to vote no mailing in you, need to show up unless circum, sir under, you know certain circumstances for the elderly or disabled. But if you vote, if you guys have ever seen the 2000 mules, you'll understand this is, I mean, there's was voter fraud and, you know, back in the 2000.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="9">
+      <c r="A24" s="3" t="n">
         <v>10507</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"15:32"</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Sixteen election. So I mean we are 2020 election. Sorry anyway we need to have as far as everybody vote in person.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="9">
+      <c r="A25" s="3" t="n">
         <v>48289</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"16:15"</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>I think an issue that I see here, a big issue is that it doesn't exactly make any kind of stipulation for those types of extenuating circumstances where mail-in voting would be the only way, you know, disability certain people, it does allow family members and and, you know designates but that also isolates the population or the part of the population, that is, without help that are by themselves, that would only have a third party. Now, I don't know if the United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="9">
+      <c r="A26" s="3" t="n">
         <v>48289</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"16:15"</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It's Postal Service would be considered one of those third parties. So that would be something where if they can, you know, hand, it directly to their mail carrier, you know? And that would be okay, that that would work, but there's no allowing for somebody who has special needs or disability to be able to go.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="9">
+      <c r="A27" s="3" t="n">
         <v>48390</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"17:00"</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>I think it's encouraging that in Oregon and other states. They discovered that voting by mail is good voting, by mail works the 60, some lawsuits brought by others last election, 2016 were all discovered to be</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="9">
+      <c r="A28" s="3" t="n">
         <v>48390</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"17:00"</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Not workable. Not valid, but not valid because there was no voter fraud in 2016.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="9">
+      <c r="A29" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"17:33"</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Bernie, I'm afraid you're sadly delusional.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="9">
+      <c r="A30" s="3" t="n">
         <v>48390</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"17:40"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>No, I'm just a disabled veteran who knows? And reads important information and that information prove that there was no voter fraud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="9">
+      <c r="A31" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"19:04"</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>I think, I think there should be uniform, voting red regulations. I don't see why everything has to be set up by the state because it puts more stress on the state's infrastructure and if the federal government is mandating it, and it they also have the opportunity to give funding to help the state's, create the infrastructure that's needed to help with voting and then that way it would mitigate a lot of the issues.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="9">
+      <c r="A32" s="3" t="n">
         <v>48434</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"19:33"</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="n"/>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="9">
+      <c r="A33" s="3" t="n">
         <v>48434</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"19:33"</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="n"/>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="9">
+      <c r="A34" s="3" t="n">
         <v>48434</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"19:33"</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Yes, I think you should definitely have to have ID. You know, when you go to vote, if you don't have ID you know, maybe and you do want to vote, maybe just gives you some incentive, you know, to just go and get your ID or driver's license.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="9">
+      <c r="A35" s="3" t="n">
         <v>48390</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"19:56"</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Having worked elections for 30 ideas. I think it's important to understand that people come in and may or may not have a valid ID. They can always leave their social, should social security number and then show proof of that, within 10 days of voting. So again, it puts the burden on the voter to do the right thing and yet, the Board of Elections is protected by ensuring that</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="9">
+      <c r="A36" s="3" t="n">
         <v>48390</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"19:56"</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Any person who votes is valid?</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="9">
+      <c r="A37" s="3" t="n">
         <v>48289</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"20:30"</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>I think one downside to having everything, all the rules organized by the federal government, is that the individual states will then have to manage within their own infrastructure to be able to keep that same standard currently there, you know, States. Like, for example, Louisiana doesn't have a lot of money, so they kind of do things, the best that they can wear, if they had to do it differently than there would need to be, you know, extra funding coming to certain places to be able to facilitate that</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="9">
+      <c r="A38" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"20:56"</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>There's no excuse not to have a proper ID, when you come to vote States, providing for free. If you don't have money. There's all kinds of organizations there to help you get in and get it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="9">
+      <c r="A39" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"20:56"</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It can be done, it's fairly simple, but it's up to the individual to make the effort to participate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="9">
+      <c r="A40" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"21:19"</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I agree. The I think it's definitely the federal government is mandating the regulations, then that should come along with funding. And I think that's, I know a lot of states are struggling with infrastructure in the money to to make the voting happen. And so, I think that would go hand-in-hand where government give money to help those States and I think it would be a benefit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="9">
+      <c r="A41" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>"21:19"</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> To them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="9">
+      <c r="A42" s="3" t="n">
         <v>10507</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>"21:50"</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>I believe you, as far as I had a friend of mine whose she's passed away now, but she didn't drive anymore. So she was able to get a light and something like a special like license, but it was a non driver's license and she could go and she could vote. So why is it that people can't seem to get off your lazy Duff's and go get a license and be able to vote because this is right given to all of us. We need to appreciate what we have.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="9">
+      <c r="A43" s="3" t="n">
         <v>10507</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>"21:50"</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Been given.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="9">
+      <c r="A44" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>"22:21"</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="n"/>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="9">
+      <c r="A45" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>"22:21"</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Yes, states have the ability to give you can get a driver's license or you could get a state issued ID and can also go to your Social Security office and get your Social Security card. And if you are, I don't know about other states. But in this state, if you cannot pay for any of those forms of identification of give it to you for free. And so, you have the ability to get some forms of identification.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="9">
+      <c r="A46" s="3" t="n">
         <v>48390</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>"22:48"</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>We have had people without state issued IDs and they can use a regular utility bill or something of that nature that will allow them to vote. So they have plenty of options.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="9">
+      <c r="A47" s="3" t="n">
         <v>48289</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>"23:05"</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>It's going to cut some people off that wall but it might also open up many more people that otherwise wouldn't vote. That will now because they have more trust in the system or what not.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="9">
+      <c r="A48" s="3" t="n">
         <v>48289</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>"24:07"</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>No personally, I never understood the Restriction of not allowing ex-convicts to vote. I can understand not allowing, you know, people who are actively in prison to participate. But once you, you know, paid your price and or release back into what would be Society. There are certain freedoms. As, you know, we're talking about that should be should be available.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="9">
+      <c r="A49" s="3" t="n">
         <v>10598</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>"24:29"</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>I think for the justice system it's just like it's a deterrent. If you commit a felony you won't be able to vote again. So don't commit a felony. I think it's like that. Same things like not be able to own like a handgun but for my opinion, that's right.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="9">
+      <c r="A50" s="3" t="n">
         <v>48434</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>"24:47"</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="n"/>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="9">
+      <c r="A51" s="3" t="n">
         <v>48434</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>"24:47"</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>I think, you know, it's a controversial subject but I my opinion is voting rights should be restored upon release from prison.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="9">
+      <c r="A52" s="3" t="n">
         <v>48390</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>"25:06"</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>You have a cap. If you have a captive audience, as you have in most prisons, you could restore voting rights through one year, say, seminar during their last year of imprisonment, to allow them to understand what their voting responsibilities are and how to go about getting their ID and how to use it. I mean, you've got a captive audience</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="9">
+      <c r="A53" s="3" t="n">
         <v>48390</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>"25:06"</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="n"/>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="9">
+      <c r="A54" s="3" t="n">
         <v>48289</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>"25:33"</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>And voting is something that as as a country. We struggle. I mean, we have to almost beg people to come out to the polls and vote. So it's using that as a punishment is almost like telling your kids, you know, clean your room, you know, and making them do stuff that they that they you know, they don't want to do anyway. So it's just counterproductive to the whole getting more people to them to the pole for using that of the punishment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="9">
+      <c r="A55" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>"26:08"</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="n"/>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="9">
+      <c r="A56" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>"26:08"</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="n"/>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="9">
+      <c r="A57" s="3" t="n">
         <v>48289</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>"27:43"</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>Personally, I don't see anything wrong with any of this.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="9">
+      <c r="A58" s="3" t="n">
         <v>48390</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>"27:54"</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>I've worked elections for 30 years and I've yet to have any voting fraud. If the broad did occur, it would be caught by the multiple checks and balances that exists between the voting location and the Board of Elections and then the state Secretary of State and his or his or her offices. So there are multiple checks on any voting or voter and usually find a small percentage of any that actually</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="9">
+      <c r="A59" s="3" t="n">
         <v>48390</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>"27:54"</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He does voter fraud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="9">
+      <c r="A60" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>"28:30"</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>I personally believe the waterfall to be rampant. Small example, Michigan had over 100,000 more people vote than a registered to vote. I believe it should be observers everywhere, free and open, not to interfere at all with accounting or messing with the votes, but to observe, the should be able to challenge voters. Not to slow the process, but that should be a means to challenge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="9">
+      <c r="A61" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>"28:30"</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And keep those votes under scrutiny.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="9">
+      <c r="A62" s="3" t="n">
         <v>48289</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>"29:00"</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, these processes would just essentially help voter confidence, which is a big issue, especially thanks to the media. A lot of people just don't trust our voting system, even though it is effective, I mean, it does work. We've been relying on it for a long time, but there's just a lot of bad mojo that people consider in, these would help to alleviate some of those fears and concerns.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="9">
+      <c r="A63" s="3" t="n">
         <v>48390</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>"31:09"</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>I love the idea of federal standards but I love local control. So if we had some standards and continue to have the operations of the Secretary of State and his or her assistance, then I think we can continue to build</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" s="9">
+      <c r="A64" s="3" t="n">
         <v>48390</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>"31:09"</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> more reliable election system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" s="9">
+      <c r="A65" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>"31:35"</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>I agree with Bernie on that hundred percent of the state's do need money to operate but local control. Local control, local control. We don't need quote, unquote professionals hired to do the job. They should be elected officials. You're not going to find the professional people, any more honest, or trustworthy than an elected person. And when you're being elected by the person is a better chance of keeping them under control.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" s="9">
+      <c r="A66" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>"31:35"</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Troll.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1" s="9">
+      <c r="A67" s="3" t="n">
         <v>10507</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="3">
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>"32:11"</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>I totally agree with Jeff and Bernie. We need to have our electric officials. Actually do their job and do as far as counting and things like this. I mean, why are we going to have the government you know as far as try to spend more money on this when they are? They can't seem to balance a budget already. I mean we need to, as far as have the elected officials work on this.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" s="9">
+      <c r="A68" s="3" t="n">
         <v>48434</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" s="5"/>
-    </row>
-    <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>"32:38"</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="n"/>
+    </row>
+    <row r="69" ht="20" customHeight="1" s="9">
+      <c r="A69" s="3" t="n">
         <v>48434</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>"32:38"</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>I think that, you know, with the state's getting Federal money for this, you know, then there would be no reason to say that it couldn't be done, you know, states are already tight for money. So I mean I think it's better to just have the federal government, fun things like this.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="20" customHeight="1" s="9">
+      <c r="A70" s="3" t="n">
         <v>48390</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="3">
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>"37:24"</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="n"/>
+    </row>
+    <row r="71" ht="20" customHeight="1" s="9">
+      <c r="A71" s="3" t="n">
         <v>48390</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="3">
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>"37:24"</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>I've struggled with getting my congressional representative to respond to my questions. Either online on the phone or in her office, she just seems to be a very busy woman and doesn't quite have time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1" s="9">
+      <c r="A72" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="3">
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>"38:17"</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="n"/>
+    </row>
+    <row r="73" ht="20" customHeight="1" s="9">
+      <c r="A73" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="3">
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>"38:17"</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="n"/>
+    </row>
+    <row r="74" ht="20" customHeight="1" s="9">
+      <c r="A74" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C74" s="5"/>
-    </row>
-    <row r="75" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3">
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>"38:17"</t>
+        </is>
+      </c>
+      <c r="C74" s="5" t="n"/>
+    </row>
+    <row r="75" ht="20" customHeight="1" s="9">
+      <c r="A75" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" s="5"/>
-    </row>
-    <row r="76" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3">
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>"38:17"</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="n"/>
+    </row>
+    <row r="76" ht="20" customHeight="1" s="9">
+      <c r="A76" s="3" t="n">
         <v>10507</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="3">
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>"38:56"</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>Hugo, I can't. We can't hear you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="20" customHeight="1" s="9">
+      <c r="A77" s="3" t="n">
         <v>48390</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C77" s="5"/>
-    </row>
-    <row r="78" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="3">
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>"39:23"</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="n"/>
+    </row>
+    <row r="78" ht="20" customHeight="1" s="9">
+      <c r="A78" s="3" t="n">
         <v>48390</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="3">
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>"39:23"</t>
+        </is>
+      </c>
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t>Hugo, did you fix your audio?</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="20" customHeight="1" s="9">
+      <c r="A79" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="3">
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>"39:28"</t>
+        </is>
+      </c>
+      <c r="C79" s="5" t="n"/>
+    </row>
+    <row r="80" ht="20" customHeight="1" s="9">
+      <c r="A80" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="3">
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>"39:28"</t>
+        </is>
+      </c>
+      <c r="C80" s="5" t="n"/>
+    </row>
+    <row r="81" ht="20" customHeight="1" s="9">
+      <c r="A81" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>107</v>
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>"39:41"</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>You go. You're not coming through. No sound.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23402E7-F4C7-C64D-BA9D-1B55A97B6E61}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="140" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="140" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="70" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="70" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="98" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="70" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="70" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>